--- a/medicine/Enfance/Charlie_et_la_Chocolaterie/Charlie_et_la_Chocolaterie.xlsx
+++ b/medicine/Enfance/Charlie_et_la_Chocolaterie/Charlie_et_la_Chocolaterie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie et la Chocolaterie (Charlie and the Chocolate Factory) est un roman pour enfants de l'auteur britannique Roald Dahl. Contant les aventures du jeune Charlie Bucket dans la chocolaterie de l'excentrique Willy Wonka, il est très apprécié des enfants, notamment dans les pays anglophones.
 Charlie et la Chocolaterie a été publié pour la première fois aux États-Unis par Roald Dahl et édité par Alfred A. Knopf en 1964, et par Allen &amp; Unwin en 1967 au Royaume-Uni. Le livre a été adapté au cinéma en deux longs métrages : Charlie et la Chocolaterie (Willy Wonka &amp; the Chocolate Factory) de Mel Stuart avec Gene Wilder, et Charlie et la Chocolaterie de Tim Burton avec Johnny Depp. La suite de l'histoire, Charlie et le Grand Ascenseur de verre, a été écrite par Roald Dahl en 1972.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie Bucket vit pauvrement dans une toute petite maison avec ses parents et ses quatre grands-parents cloués au lit, dont grand-papa Joe qui va l'accompagner à la chocolaterie. Charlie est un enfant gentil, attentionné et soigneux qui aime sa famille malgré leurs difficultés communes. Hors sa famille, la chose qu'il aime le plus est le chocolat. À cause de sa pauvreté extrême, il ne peut toutefois recevoir qu'une tablette de chocolat par an, à l'occasion de son anniversaire.
 Il y a près de sa maison la plus grosse chocolaterie du monde, dont le propriétaire se nomme Willy Wonka.
@@ -554,30 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willy Wonka
-Willy Wonka est l'étrange et intelligent propriétaire de la chocolaterie Wonka. Il est très excentrique. Il est le personnage le plus connu du roman, en raison notamment des acteurs qui l'ont incarné (Gene Wilder, Johnny Depp, Timothée Chalamet). Il est très connu dans l'univers du livre pour ses bonbons aussi excentriques que lui et son chocolat délicieux. Sa chocolaterie est faite de pièces surprenantes, fantastiques et parfois jugées inutiles par les chanceux visiteurs de sa chocolaterie. Il est toujours représenté, par les différents illustrateurs, comme un homme différent de la norme. Il est joueur, optimiste et un peu moqueur. Il est décrit dans le livre comme aussi vif qu'un écureuil. Il aime énormément sa chocolaterie et les Oompa-Loompas. Son incarnation par Gene Wilder a été déclinée en nombreux Mèmes.
-Les Bucket
-La famille Bucket est représentée comme une famille très pauvre, qui peut à peine subvenir à ses besoins. Ils ne peuvent pas s'acheter un deuxième lit. Les quatre grands-parents dorment dans le même lit.
-Charlie Bucket
-Il est le personnage principal du livre. Il est gentil, soucieux de sa famille et sage. Il adore le chocolat mais ne peut en manger souvent (une fois par an). Sa famille et lui suivent l'évolution de la chasse aux tickets d'or dans les journaux, les films et la télévision. Contrairement aux quatre autres enfants, Charlie est honnête et généreux. Dans le roman, à la fin de la visite, Wonka déclare à Charlie qu'il est l'héritier de l'usine, il a passé le test et a préféré rester sage au lieu de céder à la tentation. Les Bucket sont alors autorisés à s'installer dans l'usine. Les différents illustrateurs le représentent très maigre.
-Grand-père Joe
-Grand-père Joe est l'un des quatre grands-parents de Charlie. Il est obstiné, sénile mais toujours gentil et attentionné. Il raconte à Charlie (et au lecteur) l'histoire de la chocolaterie de Willy Wonka et le mystère des employés de Wonka. Quand Charlie trouve son ticket d'or, grand-père Joe saute de joie et, plus tard, accompagne Charlie lors de la visite de la chocolaterie.
-Les Gloop
-Les Gloop sont une famille de personnages enrobés. M. Gloop a un rôle mineur comparé à sa femme : Mme Gloop. C'est une femme très fière de son fils tel qu'il l'est. Elle semble encourager la gourmandise de son fils et être peu soucieuse des problèmes que cela peut entraîner.
-Augustus Gloop
-Présenté comme « un garçon gourmand », Augustus Gloop est obèse et glouton. Il a 9 ans et n'a pas de manières lorsqu'il mange. Il est l'un des quatre antagonistes, le premier enfant à trouver son ticket d'or et également le premier à être éliminé de la visite. Il va en effet boire dans la rivière-mélangeuse de Willy Wonka, tomber dedans, et être aspiré par un tuyau de verre menant à la salle des nougatines. La pression du chocolat associée au faible diamètre du tuyau le fera maigrir, et en sortant de la chocolaterie, Augustus sera maigre et couvert de chocolat. Chaque illustrateur le représente comme ventru, joufflu, gros comme s'il « avait été gonflé ».
-Les Beauregard
-Les Beauregard sont une famille de grands sportifs et de champions ambitieux.  
-Violette Beauregard
-Violette Beauregard est la troisième à trouver son ticket d'or, la deuxième à être éjectée de la visite et l'une des quatre antagonistes. Elle est braillarde et obsédée par le chewing-gum. Violette prétend avoir mâché un de ses chewing-gums pendant 3 mois. Elle a peu de manières et n'hésite pas à demander à ses parents de se taire. Mais lorsqu'elle vole un chewing-gum de Mr Wonka, elle devient énorme et bleue tel une myrtille géante. Il a fallu l'emmener à la salle au pressoir pour lui faire régurgiter le jus de myrtille produit par son corps; à la sortie de la chocolaterie, Violette demeure bleue et a une souplesse de contorsionniste. 
-Les Salt
-Les Salt appartiennent à une haute classe sociale. M. Salt est le patron d'une usine de noix et Mme Salt, professeure de géographie. Ils gâtent énormément leur fille, Veruca. Bien que les adaptations mettent en avant M. Salt, sa femme a autant d'importance que lui dans le livre.
-Veruca Salt
-Veruca Salt est une enfant exigeante, manipulatrice et gâtée qui exige tout ce qu'elle veut (et plus) de ses parents. Elle est égoïste, sans pitié envers sa famille et n'a absolument aucun respect pour la propriété d'autrui. Elle est la deuxième personne à trouver son ticket d'or, l'une des quatre antagonistes et la troisième éliminée de la visite. Dans la chocolaterie, Veruca est jetée dans un vide-ordures par des écureuils dressés pour détecter et éliminer les « mauvaises noix ». Son père subit le même sort. Ils réapparaîtront tous les deux couverts de détritus. L'apparence de Veruca change d'illustrateurs en illustrateurs mais elle porte toujours une robe. 
-Les Teavee
-Les Teavee sont une famille typique de classe moyenne. M. et Mme Teavee laissent leur fils, Mike, regarder la télévision à longueur de journée.
-Mike Teavee
-Mike Teavee ne fait que regarder la télévision. Il est le quatrième enfant à trouver son ticket d'or, l'un des quatre antagonistes, et le dernier à être éjecté de la chocolaterie. Il est décrit comme portant dix-huit pistolets en plastique et « ouvrant le feu » lorsqu'il voit des gangsters à la télévision. Dans son interview, il ne parle pas de son ticket, demande aux journalistes de se taire, et préfère regarder la télé. Dans la chocolaterie, Mike est miniaturisé par une caméra de télévision conçue pour diffuser des échantillons de barres de chocolat par voie télévisuelle. Après avoir rétréci, ses parents déplorent qu'il ne puisse plus aller à l'école. Son père, en colère, prend alors la télévision comme responsable du mauvais comportement de Mike, et décide de la débrancher et de la jeter par la fenêtre dès qu'ils arrivent à la maison, au plus grand malheur de son fils. Il est représenté, par les illustrateurs, habillé en cow-boy ou avec ses pistolets en plastique.
+          <t>Willy Wonka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willy Wonka est l'étrange et intelligent propriétaire de la chocolaterie Wonka. Il est très excentrique. Il est le personnage le plus connu du roman, en raison notamment des acteurs qui l'ont incarné (Gene Wilder, Johnny Depp, Timothée Chalamet). Il est très connu dans l'univers du livre pour ses bonbons aussi excentriques que lui et son chocolat délicieux. Sa chocolaterie est faite de pièces surprenantes, fantastiques et parfois jugées inutiles par les chanceux visiteurs de sa chocolaterie. Il est toujours représenté, par les différents illustrateurs, comme un homme différent de la norme. Il est joueur, optimiste et un peu moqueur. Il est décrit dans le livre comme aussi vif qu'un écureuil. Il aime énormément sa chocolaterie et les Oompa-Loompas. Son incarnation par Gene Wilder a été déclinée en nombreux Mèmes.
 </t>
         </is>
       </c>
@@ -603,10 +600,443 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les Bucket</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Bucket est représentée comme une famille très pauvre, qui peut à peine subvenir à ses besoins. Ils ne peuvent pas s'acheter un deuxième lit. Les quatre grands-parents dorment dans le même lit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Bucket</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Charlie Bucket</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le personnage principal du livre. Il est gentil, soucieux de sa famille et sage. Il adore le chocolat mais ne peut en manger souvent (une fois par an). Sa famille et lui suivent l'évolution de la chasse aux tickets d'or dans les journaux, les films et la télévision. Contrairement aux quatre autres enfants, Charlie est honnête et généreux. Dans le roman, à la fin de la visite, Wonka déclare à Charlie qu'il est l'héritier de l'usine, il a passé le test et a préféré rester sage au lieu de céder à la tentation. Les Bucket sont alors autorisés à s'installer dans l'usine. Les différents illustrateurs le représentent très maigre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Bucket</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Grand-père Joe</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand-père Joe est l'un des quatre grands-parents de Charlie. Il est obstiné, sénile mais toujours gentil et attentionné. Il raconte à Charlie (et au lecteur) l'histoire de la chocolaterie de Willy Wonka et le mystère des employés de Wonka. Quand Charlie trouve son ticket d'or, grand-père Joe saute de joie et, plus tard, accompagne Charlie lors de la visite de la chocolaterie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les Gloop</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gloop sont une famille de personnages enrobés. M. Gloop a un rôle mineur comparé à sa femme : Mme Gloop. C'est une femme très fière de son fils tel qu'il l'est. Elle semble encourager la gourmandise de son fils et être peu soucieuse des problèmes que cela peut entraîner.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les Gloop</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Augustus Gloop</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présenté comme « un garçon gourmand », Augustus Gloop est obèse et glouton. Il a 9 ans et n'a pas de manières lorsqu'il mange. Il est l'un des quatre antagonistes, le premier enfant à trouver son ticket d'or et également le premier à être éliminé de la visite. Il va en effet boire dans la rivière-mélangeuse de Willy Wonka, tomber dedans, et être aspiré par un tuyau de verre menant à la salle des nougatines. La pression du chocolat associée au faible diamètre du tuyau le fera maigrir, et en sortant de la chocolaterie, Augustus sera maigre et couvert de chocolat. Chaque illustrateur le représente comme ventru, joufflu, gros comme s'il « avait été gonflé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les Beauregard</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Beauregard sont une famille de grands sportifs et de champions ambitieux.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les Beauregard</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Violette Beauregard</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Violette Beauregard est la troisième à trouver son ticket d'or, la deuxième à être éjectée de la visite et l'une des quatre antagonistes. Elle est braillarde et obsédée par le chewing-gum. Violette prétend avoir mâché un de ses chewing-gums pendant 3 mois. Elle a peu de manières et n'hésite pas à demander à ses parents de se taire. Mais lorsqu'elle vole un chewing-gum de Mr Wonka, elle devient énorme et bleue tel une myrtille géante. Il a fallu l'emmener à la salle au pressoir pour lui faire régurgiter le jus de myrtille produit par son corps; à la sortie de la chocolaterie, Violette demeure bleue et a une souplesse de contorsionniste. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les Salt</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Salt appartiennent à une haute classe sociale. M. Salt est le patron d'une usine de noix et Mme Salt, professeure de géographie. Ils gâtent énormément leur fille, Veruca. Bien que les adaptations mettent en avant M. Salt, sa femme a autant d'importance que lui dans le livre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les Salt</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Veruca Salt</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veruca Salt est une enfant exigeante, manipulatrice et gâtée qui exige tout ce qu'elle veut (et plus) de ses parents. Elle est égoïste, sans pitié envers sa famille et n'a absolument aucun respect pour la propriété d'autrui. Elle est la deuxième personne à trouver son ticket d'or, l'une des quatre antagonistes et la troisième éliminée de la visite. Dans la chocolaterie, Veruca est jetée dans un vide-ordures par des écureuils dressés pour détecter et éliminer les « mauvaises noix ». Son père subit le même sort. Ils réapparaîtront tous les deux couverts de détritus. L'apparence de Veruca change d'illustrateurs en illustrateurs mais elle porte toujours une robe. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les Teavee</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Teavee sont une famille typique de classe moyenne. M. et Mme Teavee laissent leur fils, Mike, regarder la télévision à longueur de journée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les Teavee</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mike Teavee</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mike Teavee ne fait que regarder la télévision. Il est le quatrième enfant à trouver son ticket d'or, l'un des quatre antagonistes, et le dernier à être éjecté de la chocolaterie. Il est décrit comme portant dix-huit pistolets en plastique et « ouvrant le feu » lorsqu'il voit des gangsters à la télévision. Dans son interview, il ne parle pas de son ticket, demande aux journalistes de se taire, et préfère regarder la télé. Dans la chocolaterie, Mike est miniaturisé par une caméra de télévision conçue pour diffuser des échantillons de barres de chocolat par voie télévisuelle. Après avoir rétréci, ses parents déplorent qu'il ne puisse plus aller à l'école. Son père, en colère, prend alors la télévision comme responsable du mauvais comportement de Mike, et décide de la débrancher et de la jeter par la fenêtre dès qu'ils arrivent à la maison, au plus grand malheur de son fils. Il est représenté, par les illustrateurs, habillé en cow-boy ou avec ses pistolets en plastique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre autres enfants vont en effet mal se comporter et finir chacun victimes d'un sort malheureux et affublés d'une condition physique les forçant à quitter le bâtiment.
 Augustus Gloop va boire dans la rivière-mélangeuse de Willy Wonka, tomber dedans, et être aspiré par un tuyau de verre menant à la salle des nougatines. La pression du chocolat associée au faible diamètre du tuyau le déforme et le rend fin comme une allumette.
@@ -620,63 +1050,67 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Impact culturel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie et la Chocolaterie, grâce à son succès extraordinaire et à ses deux adaptations au cinéma, est devenu une référence culturelle. Cette signification culturelle a par exemple donné son nom à la société The Willy Wonka Candy Company, et a donné naissance à une expression anglaise : le terme « golden ticket » désigne désormais une garantie thésaurisée pour quelque chose de spécial et d'exclusif.
-Le module de jeu de rôle sur table, Blood in the Chocolate, s'inspire librement de nombreux éléments de l'histoire originale[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Le module de jeu de rôle sur table, Blood in the Chocolate, s'inspire librement de nombreux éléments de l'histoire originale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Pièces de la chocolaterie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cette chocolaterie, on trouve une grande variété de salles spécialisées, qui représentent toutes les étapes de la fabrication ou se dédient à un produit particulier. Les enfants, lors de leur visite guidée, y voient nombre d'invraisemblances. Un bon exemple est la fameuse  « Chocolate Room ». Tout y est comestible, même le gazon. On y trouve une cascade de chocolat qui le brasse pour lui donner la bonne texture. Comme le précise à quelques reprises Willy Wonka, sa chocolaterie est la seule au monde à utiliser une cascade pour brasser le chocolat. Cela lui donne une texture riche et onctueuse. On remarque également des tuyaux qui emportent le chocolat vers d'autres endroits de la fabrique, comme celui dans lequel Augustus Gloop est aspiré.
 D'autres pièces sont aussi décrites, comme la « Salle des Inventions » où Violet Beauregard se transforme en myrtille. C'est dans la « Salle des noix » que Veruca Salt est éliminée. Dans cette salle, des dizaines d'écureuils dressés trient les noix, envoyant les mauvaises dans le tuyau à déchets. C'est dans la « Salle de Télévision » que Mike Teavee disparaît.
@@ -684,62 +1118,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Accusations de racisme et d'idéologie impérialiste</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">En réponse aux critiques de la NAACP, de l'auteur canadien Eleanor Cameron, et d'autres personnes indignées par la description des Oompa-Loompas comme des pygmées à peau noire travaillant dans la fabrique Wonka pour des graines de cacao, Roald Dahl modifia certaines parties de ses textes, et Schindelman remplaça quelques illustrations (les illustrations de la version anglaise changèrent aussi). Cette nouvelle version fut publiée en 1973 aux États-Unis. Dans la version révisée, les Oompa-Loompas sont décrits comme ayant de longs et étonnants cheveux marron-doré et une peau blanche rosée. Leur origine est aussi passée de l'Afrique au pays imaginaire de Loompaland. L'hypothèse la plus probable serait que la vision qu'avait Roald Dahl des Noirs et des Indiens, était due en partie à ses souvenirs. Du fait qu'il a traversé pendant la Seconde Guerre mondiale, des pays profondément racistes et impérialistes. Il est tout de même bon de préciser qu'à l'origine, Charlie le héros éponyme était de couleur de peau noire, ce que l'éditeur lui conseilla de changer de peur de faire fuir les lecteurs blancs.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>New England Round Table of Children's Librarians Award (États-Unis, 1972)
 Surrey School Award (Royaume-Uni, 1973)
@@ -748,69 +1186,145 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cinéma
-1971 : Charlie et la Chocolaterie de Mel Stuart
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1971 : Charlie et la Chocolaterie de Mel Stuart
 2005 : Charlie et la Chocolaterie de Tim Burton
-2023 : Wonka de Paul King, préquelle se déroulant avant les évènements du livre et centré sur le personnage de Willy Wonka[2].
+2023 : Wonka de Paul King, préquelle se déroulant avant les évènements du livre et centré sur le personnage de Willy Wonka.
 Le roman et ses adaptations ont aussi inspiré un long métrage mettant en scène Tom et Jerry : Tom et Jerry au pays de Charlie et la chocolaterie de Spike Brandt (2017).
-Théâtre
-2005 : Charlie et la Chocolaterie, troupe Andromède[réf. nécessaire]
-Comédie musicale
-Charlie et la Chocolaterie, Le Musical, adaptation de Ludovic-Alexandre Vidal et musique de Philippe Gouadin (2021).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2005 : Charlie et la Chocolaterie, troupe Andromède[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Comédie musicale</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Charlie et la Chocolaterie, Le Musical, adaptation de Ludovic-Alexandre Vidal et musique de Philippe Gouadin (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_et_la_Chocolaterie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Éditions en langue anglaise</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>(ISBN 0-394-81011-2) (hardcover, 1973, révisé Oompa Loompa édition)
 (ISBN 0-87129-220-3) (broché, 1976)
